--- a/Format for ARN change.xlsx
+++ b/Format for ARN change.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ARN CHANGE FORM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1F7F53-29D4-4657-81E8-07445DDDBBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FA484C-7BB0-4747-830B-8E9CF9BC5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21AEF9C9-B1C3-4310-98CC-BF395E1997F3}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{21AEF9C9-B1C3-4310-98CC-BF395E1997F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Mutual Fund</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t xml:space="preserve">ASHAR </t>
+  </si>
+  <si>
+    <t>Nippon Large Cap Fund</t>
+  </si>
+  <si>
+    <t>CMRPM0258F</t>
+  </si>
+  <si>
+    <t>Nippon Small Cap Fund</t>
+  </si>
+  <si>
+    <t>AGHPM9964E</t>
+  </si>
+  <si>
+    <t>AMAN</t>
   </si>
 </sst>
 </file>
@@ -445,21 +460,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F1F9E-DC77-4E41-B145-A9537599CBE6}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -485,6 +500,34 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>11110000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
